--- a/漢字（かんじ）/p.xlsx
+++ b/漢字（かんじ）/p.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF04CEB-AF84-4885-91FA-ADFF10CED9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D934F60-0B9C-41A8-9BC8-470C0E01518E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ぱ" sheetId="2" r:id="rId1"/>
     <sheet name="ぷ" sheetId="1" r:id="rId2"/>
+    <sheet name="ぽ" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>付</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +115,18 @@
   </si>
   <si>
     <t>把</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぽ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>進歩｜しんぽ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6F192A-A8BE-43BA-BD11-5FBD08A67478}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -530,7 +543,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -586,4 +599,42 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580FED48-B047-49A1-9BEC-FBDDC4A3D91C}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>